--- a/resources/complexity_summary.xlsx
+++ b/resources/complexity_summary.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/PycharmProjects/PRasmussenLab1/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC917305-A561-C64B-9EB3-5E106A5614BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A57BA3-9311-9843-90AB-B4E04FDBBF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E21E846-EB35-BE42-9386-6F847BA31100}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="complexity_summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">complexity_summary!$B$3:$E$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -175,10 +175,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -186,7 +183,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>convert_prefix_stack</a:t>
             </a:r>
           </a:p>
@@ -207,10 +208,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -268,8 +266,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10117388451443569"/>
-                  <c:y val="-0.13930555555555554"/>
+                  <c:x val="0.14284055118110237"/>
+                  <c:y val="0.15236111111111111"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -287,10 +285,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -304,7 +299,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:f>complexity_summary!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -331,7 +326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$9</c:f>
+              <c:f>complexity_summary!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -390,10 +385,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -401,14 +393,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>N</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> rows</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -427,10 +431,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -460,10 +461,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -484,6 +482,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -503,10 +554,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -549,10 +597,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -579,12 +624,502 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>convert_prefix_input</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14284055118110237"/>
+                  <c:y val="0.15236111111111111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>complexity_summary!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>complexity_summary!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10375000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52356000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97276000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>509880000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1126350000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10616539000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D88F-5546-82E3-1ADE3F16E6D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1938533984"/>
+        <c:axId val="1938434160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1938533984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> rows</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938434160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1938434160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938533984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -647,6 +1182,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1163,20 +1738,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1196,6 +2287,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65F4243-75F8-D046-86A6-69FA0F922560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1504,7 +2633,7 @@
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
